--- a/biology/Histoire de la zoologie et de la botanique/Gustav_Hartlaub/Gustav_Hartlaub.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gustav_Hartlaub/Gustav_Hartlaub.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karel Johan Gustav Hartlaub est un médecin et zoologiste allemand, né le 8 novembre 1814 à Brême et mort le 29 novembre 1900 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est le fils de Karl Friedrich Ludwig et de Johanna, née Buch. Il fait ses études à Bonn, à Berlin et à Göttingen où il devient membre du Corps Guestphalia Bonn en 1837 et obtient son titre de docteur en médecine en 1838. Il voyage alors en Europe.
 En 1840, il commence à s’intéresser aux oiseaux et commence une collection d’espèces exotiques. Parallèlement à l’exercice de la médecine, il enseigne la zoologie à Brême et il est le directeur honoraire de la collection de zoologie du Muséum de la Société d’histoire naturelle de la ville. Sa collection n’est pas privée et ses spécimens sont conservés dans ce Muséum. Il achète de nombreux spécimens et la collection compte, en 1844, deux mille items. Il découvre de nouvelles espèces parmi ceux-ci et commence à les décrire dans Archiv für Naturgeschichte.
